--- a/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1130 +453,1915 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44914</v>
+        <v>44920</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44942</v>
+        <v>44948</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>44949</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44956</v>
+        <v>44962</v>
       </c>
       <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>44963</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44977</v>
+        <v>44983</v>
       </c>
       <c r="B8" t="n">
         <v>141</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44984</v>
+        <v>44990</v>
       </c>
       <c r="B9" t="n">
         <v>169</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44991</v>
+        <v>44997</v>
       </c>
       <c r="B10" t="n">
         <v>174</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44998</v>
+        <v>45004</v>
       </c>
       <c r="B11" t="n">
         <v>128</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45005</v>
+        <v>45011</v>
       </c>
       <c r="B12" t="n">
         <v>197</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45012</v>
+        <v>45018</v>
       </c>
       <c r="B13" t="n">
         <v>164</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45019</v>
+        <v>45025</v>
       </c>
       <c r="B14" t="n">
         <v>180</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45026</v>
+        <v>45032</v>
       </c>
       <c r="B15" t="n">
         <v>155</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45033</v>
+        <v>45039</v>
       </c>
       <c r="B16" t="n">
         <v>168</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45040</v>
+        <v>45046</v>
       </c>
       <c r="B17" t="n">
         <v>155</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45047</v>
+        <v>45053</v>
       </c>
       <c r="B18" t="n">
         <v>151</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45054</v>
+        <v>45060</v>
       </c>
       <c r="B19" t="n">
         <v>163</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="B20" t="n">
         <v>131</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45068</v>
+        <v>45074</v>
       </c>
       <c r="B21" t="n">
         <v>137</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45075</v>
+        <v>45081</v>
       </c>
       <c r="B22" t="n">
         <v>136</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="B23" t="n">
         <v>157</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="B24" t="n">
         <v>161</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="B25" t="n">
         <v>146</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="B26" t="n">
         <v>260</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="B27" t="n">
         <v>209</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45117</v>
+        <v>45123</v>
       </c>
       <c r="B28" t="n">
         <v>129</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="B29" t="n">
         <v>123</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B30" t="n">
         <v>146</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45138</v>
+        <v>45144</v>
       </c>
       <c r="B31" t="n">
         <v>177</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45145</v>
+        <v>45151</v>
       </c>
       <c r="B32" t="n">
         <v>190</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="B33" t="n">
         <v>194</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="B34" t="n">
         <v>205</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45166</v>
+        <v>45172</v>
       </c>
       <c r="B35" t="n">
         <v>158</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45173</v>
+        <v>45179</v>
       </c>
       <c r="B36" t="n">
         <v>137</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45180</v>
+        <v>45186</v>
       </c>
       <c r="B37" t="n">
         <v>118</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="B38" t="n">
         <v>101</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="B39" t="n">
         <v>152</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="B40" t="n">
         <v>112</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45208</v>
+        <v>45214</v>
       </c>
       <c r="B41" t="n">
         <v>91</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45215</v>
+        <v>45221</v>
       </c>
       <c r="B42" t="n">
         <v>99</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B43" t="n">
         <v>123</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B44" t="n">
         <v>196</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B45" t="n">
         <v>388</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B46" t="n">
         <v>560</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B47" t="n">
         <v>317</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B48" t="n">
         <v>380</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B49" t="n">
         <v>314</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B50" t="n">
         <v>291</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B51" t="n">
         <v>255</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="n">
         <v>158</v>
       </c>
-      <c r="C52" t="n">
-        <v>288</v>
+      <c r="C52" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B53" t="n">
         <v>117</v>
       </c>
-      <c r="C53" t="n">
-        <v>240</v>
+      <c r="C53" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B54" t="n">
         <v>138</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B55" t="n">
         <v>135</v>
       </c>
-      <c r="C55" t="n">
-        <v>48</v>
+      <c r="C55" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B56" t="n">
         <v>150</v>
       </c>
-      <c r="C56" t="n">
-        <v>24</v>
+      <c r="C56" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B57" t="n">
         <v>149</v>
       </c>
-      <c r="C57" t="n">
-        <v>384</v>
+      <c r="C57" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B58" t="n">
         <v>181</v>
       </c>
-      <c r="C58" t="n">
-        <v>216</v>
+      <c r="C58" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B59" t="n">
         <v>201</v>
       </c>
-      <c r="C59" t="n">
-        <v>456</v>
+      <c r="C59" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B60" t="n">
         <v>229</v>
       </c>
-      <c r="C60" t="n">
-        <v>240</v>
+      <c r="C60" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B61" t="n">
         <v>216</v>
       </c>
-      <c r="C61" t="n">
-        <v>720</v>
+      <c r="C61" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B62" t="n">
         <v>203</v>
       </c>
-      <c r="C62" t="n">
-        <v>128</v>
+      <c r="C62" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B63" t="n">
         <v>183</v>
       </c>
-      <c r="C63" t="n">
-        <v>96</v>
+      <c r="C63" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B64" t="n">
         <v>183</v>
       </c>
-      <c r="C64" t="n">
-        <v>216</v>
+      <c r="C64" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B65" t="n">
         <v>115</v>
       </c>
-      <c r="C65" t="n">
-        <v>96</v>
+      <c r="C65" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B66" t="n">
         <v>116</v>
       </c>
-      <c r="C66" t="n">
-        <v>832</v>
+      <c r="C66" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B67" t="n">
         <v>127</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B68" t="n">
         <v>189</v>
       </c>
-      <c r="C68" t="n">
-        <v>176</v>
+      <c r="C68" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B69" t="n">
         <v>169</v>
       </c>
-      <c r="C69" t="n">
-        <v>240</v>
+      <c r="C69" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B70" t="n">
         <v>184</v>
       </c>
-      <c r="C70" t="n">
-        <v>640</v>
+      <c r="C70" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B71" t="n">
         <v>119</v>
       </c>
-      <c r="C71" t="n">
-        <v>464</v>
+      <c r="C71" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B72" t="n">
         <v>126</v>
       </c>
-      <c r="C72" t="n">
-        <v>48</v>
+      <c r="C72" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B73" t="n">
         <v>134</v>
       </c>
-      <c r="C73" t="n">
-        <v>240</v>
+      <c r="C73" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B74" t="n">
         <v>145</v>
       </c>
-      <c r="C74" t="n">
-        <v>832</v>
+      <c r="C74" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B75" t="n">
         <v>138</v>
       </c>
-      <c r="C75" t="n">
-        <v>16</v>
+      <c r="C75" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B76" t="n">
         <v>146</v>
       </c>
-      <c r="C76" t="n">
-        <v>272</v>
+      <c r="C76" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B77" t="n">
         <v>92</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B78" t="n">
         <v>180</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B79" t="n">
         <v>355</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B80" t="n">
         <v>195</v>
       </c>
-      <c r="C80" t="n">
-        <v>864</v>
+      <c r="C80" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B81" t="n">
         <v>49</v>
       </c>
-      <c r="C81" t="n">
-        <v>416</v>
+      <c r="C81" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B82" t="n">
         <v>111</v>
       </c>
-      <c r="C82" t="n">
-        <v>656</v>
+      <c r="C82" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B83" t="n">
         <v>172</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B84" t="n">
         <v>111</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B85" t="n">
         <v>260</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B86" t="n">
         <v>5</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
-      <c r="C87" t="n">
-        <v>416</v>
+      <c r="C87" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
+        <v>45550</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>16</v>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="n">
         <v>45551</v>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>160</v>
+      <c r="D89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="n">
         <v>45565</v>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B92" t="n">
         <v>21</v>
       </c>
-      <c r="C92" t="n">
-        <v>48</v>
+      <c r="C92" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B93" t="n">
         <v>51</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B94" t="n">
         <v>62</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B95" t="n">
         <v>90</v>
       </c>
-      <c r="C95" t="n">
-        <v>1168</v>
+      <c r="C95" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B96" t="n">
         <v>132</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B97" t="n">
         <v>171</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B98" t="n">
         <v>217</v>
       </c>
-      <c r="C98" t="n">
-        <v>1776</v>
+      <c r="C98" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B99" t="n">
         <v>288</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B100" t="n">
         <v>208</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B101" t="n">
         <v>213</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B102" t="n">
         <v>142</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B103" t="n">
         <v>119</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
+      <c r="C103" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>240</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.66666666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B6" t="n">
+        <v>384</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B7" t="n">
+        <v>216</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B8" t="n">
+        <v>456</v>
+      </c>
+      <c r="C8" t="n">
+        <v>111.1111111111111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B9" t="n">
+        <v>240</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-47.36842105263158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>720</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B11" t="n">
+        <v>128</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-82.22222222222221</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B13" t="n">
+        <v>216</v>
+      </c>
+      <c r="C13" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-55.55555555555556</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B15" t="n">
+        <v>832</v>
+      </c>
+      <c r="C15" t="n">
+        <v>766.6666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B16" t="n">
+        <v>176</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-78.84615384615384</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B17" t="n">
+        <v>240</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36.36363636363635</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B18" t="n">
+        <v>640</v>
+      </c>
+      <c r="C18" t="n">
+        <v>166.6666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B19" t="n">
+        <v>464</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B20" t="n">
+        <v>48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-89.65517241379311</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B21" t="n">
+        <v>240</v>
+      </c>
+      <c r="C21" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B22" t="n">
+        <v>832</v>
+      </c>
+      <c r="C22" t="n">
+        <v>246.6666666666667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-98.07692307692307</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B24" t="n">
+        <v>272</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B25" t="n">
+        <v>864</v>
+      </c>
+      <c r="C25" t="n">
+        <v>217.6470588235294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B26" t="n">
+        <v>416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-51.85185185185186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B27" t="n">
+        <v>656</v>
+      </c>
+      <c r="C27" t="n">
+        <v>57.69230769230769</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B28" t="n">
+        <v>416</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-36.58536585365854</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-96.15384615384616</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B30" t="n">
+        <v>160</v>
+      </c>
+      <c r="C30" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B31" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2333.333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C33" t="n">
+        <v>52.05479452054795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12432</v>
+      </c>
+      <c r="B2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>648.6290322580646</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1440 +453,1129 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44920</v>
+        <v>44920.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44948</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44955</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44962</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44969</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44983</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>141</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44990</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>169</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44997</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>174</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45004</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>128</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45011</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>197</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45018</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>164</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45025</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>180</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45032</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>155</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45039</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>168</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45046</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>155</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45053</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>151</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45060</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>163</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45067</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>131</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45074</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>137</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45081</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>136</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45088</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>157</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45095</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>161</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45102</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>146</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45109</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>260</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45116</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>209</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45123</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>129</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45130</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>123</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45137</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>146</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>448</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45144</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>177</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45151</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>190</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45158</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>194</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45165</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>205</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45172</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>158</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45179</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>137</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45186</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>118</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45193</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>101</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45200</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>152</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="C39" t="n">
+        <v>1176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45207</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>112</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45214</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>91</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>99</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>123</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>196</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>388</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="C45" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>560</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="C46" t="n">
+        <v>664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>317</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="C47" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>380</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="C48" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>314</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="C49" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>291</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>255</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>158</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="C52" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>117</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>138</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>135</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="C55" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>150</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="C56" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>149</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="C57" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>181</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+      <c r="C58" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>201</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="C59" t="n">
+        <v>456</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>229</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+      <c r="C60" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>216</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+      <c r="C61" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>203</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+      <c r="C62" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>183</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+      <c r="C63" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>183</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+      <c r="C64" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>115</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+      <c r="C65" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>116</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
+      <c r="C66" t="n">
+        <v>832</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>127</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>189</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+      <c r="C68" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>169</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+      <c r="C69" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>184</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+      <c r="C70" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>119</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+      <c r="C71" t="n">
+        <v>464</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>126</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+      <c r="C72" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>134</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+      <c r="C73" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>145</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+      <c r="C74" t="n">
+        <v>832</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>138</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+      <c r="C75" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>146</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+      <c r="C76" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>92</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>180</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>355</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B80" t="n">
         <v>195</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
+      <c r="C80" t="n">
+        <v>864</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B81" t="n">
         <v>49</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+      <c r="C81" t="n">
+        <v>416</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>111</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+      <c r="C82" t="n">
+        <v>656</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B83" t="n">
         <v>172</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B84" t="n">
         <v>111</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>260</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>5</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="C87" t="n">
+        <v>416</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="C88" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
+      <c r="C89" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>21</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+      <c r="C92" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>51</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>62</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>90</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
+      <c r="C95" t="n">
+        <v>1168</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B96" t="n">
         <v>132</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B97" t="n">
         <v>171</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B98" t="n">
         <v>217</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
+      <c r="C98" t="n">
+        <v>1776</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B99" t="n">
         <v>288</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B100" t="n">
         <v>208</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B101" t="n">
         <v>213</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B102" t="n">
         <v>142</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B103" t="n">
         <v>119</v>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D103" t="n">
+      <c r="C103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +1590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1928,10 +1617,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1939,342 +1628,804 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>432</v>
       </c>
       <c r="C3" t="n">
-        <v>-16.66666666666666</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
-        <v>-80</v>
+        <v>-77.77777777777779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>-50</v>
+        <v>-91.66666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="C6" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="C7" t="n">
-        <v>-43.75</v>
+        <v>-69.76744186046511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="C8" t="n">
-        <v>111.1111111111111</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.36842105263158</v>
+        <v>188.235294117647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>720</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>200</v>
+        <v>-93.87755102040816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
-        <v>-82.22222222222221</v>
+        <v>533.3333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>768</v>
       </c>
       <c r="C12" t="n">
-        <v>-25</v>
+        <v>405.2631578947368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>-64.58333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>-55.55555555555556</v>
+        <v>-97.05882352941177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>832</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n">
-        <v>766.6666666666666</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C16" t="n">
-        <v>-78.84615384615384</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="C17" t="n">
-        <v>36.36363636363635</v>
+        <v>89.99999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>640</v>
+        <v>128</v>
       </c>
       <c r="C18" t="n">
-        <v>166.6666666666667</v>
+        <v>-15.78947368421053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>464</v>
+        <v>128</v>
       </c>
       <c r="C19" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C20" t="n">
-        <v>-89.65517241379311</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>400</v>
+        <v>11.11111111111112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45446</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>832</v>
+        <v>112</v>
       </c>
       <c r="C22" t="n">
-        <v>246.6666666666667</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C23" t="n">
-        <v>-98.07692307692307</v>
+        <v>28.57142857142858</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C24" t="n">
-        <v>1600</v>
+        <v>61.11111111111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45488</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>864</v>
+        <v>176</v>
       </c>
       <c r="C25" t="n">
-        <v>217.6470588235294</v>
+        <v>-24.13793103448276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45495</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="C26" t="n">
-        <v>-51.85185185185186</v>
+        <v>31.81818181818181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45502</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>656</v>
+        <v>208</v>
       </c>
       <c r="C27" t="n">
-        <v>57.69230769230769</v>
+        <v>-10.3448275862069</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45537</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C28" t="n">
-        <v>-36.58536585365854</v>
+        <v>88.46153846153845</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45544</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>448</v>
       </c>
       <c r="C29" t="n">
-        <v>-96.15384615384616</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="C30" t="n">
-        <v>900</v>
+        <v>-10.71428571428571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45572</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="C31" t="n">
-        <v>-70</v>
+        <v>-56.00000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1168</v>
+        <v>224</v>
       </c>
       <c r="C32" t="n">
-        <v>2333.333333333333</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45614</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>280</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>240</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-14.28571428571429</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C35" t="n">
+        <v>390.0000000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-98.63945578231292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+      <c r="C38" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>664</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2666.666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>960</v>
+      </c>
+      <c r="C40" t="n">
+        <v>44.57831325301205</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C41" t="n">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-97.14285714285714</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>288</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>240</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-16.66666666666666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>48</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>384</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>216</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>456</v>
+      </c>
+      <c r="C50" t="n">
+        <v>111.1111111111111</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>240</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-47.36842105263158</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>720</v>
+      </c>
+      <c r="C52" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>128</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-82.22222222222221</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>96</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>216</v>
+      </c>
+      <c r="C55" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>96</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-55.55555555555556</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>832</v>
+      </c>
+      <c r="C57" t="n">
+        <v>766.6666666666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>176</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-78.84615384615384</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>240</v>
+      </c>
+      <c r="C59" t="n">
+        <v>36.36363636363635</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>640</v>
+      </c>
+      <c r="C60" t="n">
+        <v>166.6666666666667</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>464</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>48</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-89.65517241379311</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>240</v>
+      </c>
+      <c r="C63" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>832</v>
+      </c>
+      <c r="C64" t="n">
+        <v>246.6666666666667</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-98.07692307692307</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>272</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>864</v>
+      </c>
+      <c r="C67" t="n">
+        <v>217.6470588235294</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>416</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-51.85185185185186</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>656</v>
+      </c>
+      <c r="C69" t="n">
+        <v>57.69230769230769</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>416</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-36.58536585365854</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>16</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-96.15384615384616</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>160</v>
+      </c>
+      <c r="C72" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>48</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2333.333333333333</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B75" t="n">
         <v>1776</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C75" t="n">
         <v>52.05479452054795</v>
       </c>
     </row>
@@ -2321,16 +2472,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12432</v>
+        <v>23568</v>
       </c>
       <c r="B2" t="n">
-        <v>388.5</v>
+        <v>318.4864864864865</v>
       </c>
       <c r="C2" t="n">
         <v>1776</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>648.6290322580646</v>
+        <v>502.0984820436876</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,14 @@
       </c>
       <c r="B103" t="n">
         <v>119</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B104" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -41411,7 +41419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C442"/>
+  <dimension ref="A1:C443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45107,7 +45115,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="336">
@@ -45118,7 +45126,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="337">
@@ -45129,7 +45137,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338">
@@ -45206,7 +45214,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="345">
@@ -45217,7 +45225,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -45393,7 +45401,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362">
@@ -45404,7 +45412,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="363">
@@ -45415,7 +45423,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="364">
@@ -45426,7 +45434,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="365">
@@ -45437,7 +45445,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366">
@@ -45448,7 +45456,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367">
@@ -45459,7 +45467,7 @@
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="368">
@@ -45525,7 +45533,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374">
@@ -45536,7 +45544,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="375">
@@ -45547,7 +45555,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376">
@@ -45558,7 +45566,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="377">
@@ -45569,7 +45577,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="378">
@@ -45580,7 +45588,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="379">
@@ -45591,7 +45599,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380">
@@ -45602,7 +45610,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="381">
@@ -45613,7 +45621,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="382">
@@ -45635,7 +45643,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384">
@@ -45646,7 +45654,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="385">
@@ -45657,7 +45665,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="386">
@@ -45701,7 +45709,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="390">
@@ -45712,7 +45720,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391">
@@ -45723,7 +45731,7 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="392">
@@ -45734,7 +45742,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="393">
@@ -45756,7 +45764,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395">
@@ -45767,7 +45775,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396">
@@ -45778,7 +45786,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="397">
@@ -45789,7 +45797,7 @@
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="398">
@@ -45811,7 +45819,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>208</v>
+        <v>120</v>
       </c>
     </row>
     <row r="400">
@@ -45822,7 +45830,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
     </row>
     <row r="401">
@@ -45976,7 +45984,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415">
@@ -45987,7 +45995,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="416">
@@ -46284,6 +46292,17 @@
         <v>119</v>
       </c>
       <c r="C442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B443" t="n">
+        <v>89</v>
+      </c>
+      <c r="C443" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,6 +1275,14 @@
       </c>
       <c r="B104" t="n">
         <v>89</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -41419,7 +41427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C443"/>
+  <dimension ref="A1:C444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42805,7 +42813,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>792</v>
       </c>
     </row>
     <row r="126">
@@ -42816,7 +42824,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127">
@@ -42827,7 +42835,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
@@ -42838,7 +42846,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -42849,7 +42857,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
@@ -42860,7 +42868,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>792</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -43278,7 +43286,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
@@ -43289,7 +43297,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170">
@@ -43322,7 +43330,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -43355,7 +43363,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
@@ -43388,7 +43396,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179">
@@ -43399,7 +43407,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -43586,7 +43594,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197">
@@ -43608,7 +43616,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199">
@@ -43652,7 +43660,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
@@ -43674,7 +43682,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205">
@@ -43707,7 +43715,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
@@ -43729,7 +43737,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210">
@@ -43740,7 +43748,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -43773,7 +43781,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214">
@@ -43795,7 +43803,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -43817,7 +43825,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218">
@@ -43828,7 +43836,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
@@ -43850,7 +43858,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
@@ -43861,7 +43869,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -44092,7 +44100,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243">
@@ -44125,7 +44133,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246">
@@ -44312,7 +44320,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263">
@@ -44323,7 +44331,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264">
@@ -44334,7 +44342,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265">
@@ -44345,7 +44353,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266">
@@ -44356,7 +44364,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -44433,7 +44441,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
@@ -44444,7 +44452,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275">
@@ -44455,7 +44463,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276">
@@ -44466,7 +44474,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -44477,7 +44485,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278">
@@ -44510,7 +44518,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="281">
@@ -44521,7 +44529,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -44532,7 +44540,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283">
@@ -44543,7 +44551,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284">
@@ -44565,7 +44573,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -44576,7 +44584,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="287">
@@ -44587,7 +44595,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288">
@@ -44609,7 +44617,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
@@ -44620,7 +44628,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291">
@@ -44631,7 +44639,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292">
@@ -44642,7 +44650,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293">
@@ -44653,7 +44661,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294">
@@ -44664,7 +44672,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="295">
@@ -44708,7 +44716,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299">
@@ -44719,7 +44727,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -45038,7 +45046,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="329">
@@ -45049,7 +45057,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="330">
@@ -45071,7 +45079,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
@@ -45115,7 +45123,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336">
@@ -45126,7 +45134,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337">
@@ -45137,7 +45145,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="338">
@@ -45225,7 +45233,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346">
@@ -45236,7 +45244,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="347">
@@ -45302,7 +45310,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="353">
@@ -45313,7 +45321,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="354">
@@ -45335,7 +45343,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="356">
@@ -45346,7 +45354,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="357">
@@ -45401,7 +45409,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362">
@@ -45412,7 +45420,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363">
@@ -45533,7 +45541,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="374">
@@ -45544,7 +45552,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375">
@@ -45599,7 +45607,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380">
@@ -45621,7 +45629,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382">
@@ -45632,7 +45640,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="383">
@@ -45643,7 +45651,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="384">
@@ -45654,7 +45662,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385">
@@ -45665,7 +45673,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="386">
@@ -45698,7 +45706,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389">
@@ -45709,7 +45717,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="390">
@@ -45720,7 +45728,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="391">
@@ -45731,7 +45739,7 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="392">
@@ -45984,7 +45992,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="415">
@@ -45995,7 +46003,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416">
@@ -46006,7 +46014,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417">
@@ -46017,7 +46025,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="418">
@@ -46303,6 +46311,17 @@
         <v>89</v>
       </c>
       <c r="C443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B444" t="n">
+        <v>103</v>
+      </c>
+      <c r="C444" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,6 +1283,14 @@
       </c>
       <c r="B105" t="n">
         <v>103</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B106" t="n">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -41427,7 +41435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C444"/>
+  <dimension ref="A1:C445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44518,7 +44526,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281">
@@ -44529,7 +44537,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
@@ -44540,7 +44548,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="283">
@@ -44551,7 +44559,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284">
@@ -44573,7 +44581,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -44584,7 +44592,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -44595,7 +44603,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="288">
@@ -44617,7 +44625,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -44628,7 +44636,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="291">
@@ -44639,7 +44647,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
@@ -44650,7 +44658,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293">
@@ -44661,7 +44669,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
@@ -44672,7 +44680,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="295">
@@ -44716,7 +44724,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
@@ -44727,7 +44735,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300">
@@ -45046,7 +45054,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329">
@@ -45057,7 +45065,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="330">
@@ -45079,7 +45087,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332">
@@ -45123,7 +45131,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="336">
@@ -45134,7 +45142,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="337">
@@ -45145,7 +45153,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338">
@@ -45233,7 +45241,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -45244,7 +45252,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347">
@@ -45310,7 +45318,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="353">
@@ -45321,7 +45329,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354">
@@ -45343,7 +45351,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="356">
@@ -45354,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="357">
@@ -45409,7 +45417,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362">
@@ -45420,7 +45428,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="363">
@@ -45541,7 +45549,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374">
@@ -45552,7 +45560,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="375">
@@ -45607,7 +45615,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380">
@@ -45629,7 +45637,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="382">
@@ -45640,7 +45648,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383">
@@ -45651,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384">
@@ -45662,7 +45670,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="385">
@@ -45673,7 +45681,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="386">
@@ -45706,7 +45714,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="389">
@@ -45717,7 +45725,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="390">
@@ -45728,7 +45736,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391">
@@ -45739,7 +45747,7 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="392">
@@ -45992,7 +46000,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415">
@@ -46003,7 +46011,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="416">
@@ -46014,7 +46022,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="417">
@@ -46025,7 +46033,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418">
@@ -46322,6 +46330,17 @@
         <v>103</v>
       </c>
       <c r="C444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B445" t="n">
+        <v>310</v>
+      </c>
+      <c r="C445" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH6XND27_sales_po_comparison.xlsx
@@ -1290,7 +1290,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B106" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -46338,7 +46338,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B445" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
